--- a/fission_yeast_practice/GS_overlap_1.xlsx
+++ b/fission_yeast_practice/GS_overlap_1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="overlap_strand_gs1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -392,451 +392,991 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SPAC22F3.05c</t>
+          <t>SPAC2F7.15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SPAC22F3.06c</t>
+          <t>SPAC2F7.16c</t>
         </is>
       </c>
       <c r="C3">
-        <v>693831</v>
+        <v>565168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SPAPB17E12.03</t>
+          <t>SPAC22F3.05c</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPAPB17E12.02</t>
+          <t>SPAC22F3.06c</t>
         </is>
       </c>
       <c r="C4">
-        <v>1271445</v>
+        <v>693831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SPAPB17E12.04c</t>
+          <t>SPAC22F3.05c</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SPAPB17E12.03</t>
+          <t>SPAC22F3.04</t>
         </is>
       </c>
       <c r="C5">
-        <v>1272015</v>
+        <v>698033</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SPAPB17E12.07c</t>
+          <t>SPAC1296.04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SPAPB17E12.06</t>
+          <t>SPAC1296.05c</t>
         </is>
       </c>
       <c r="C6">
-        <v>1277458</v>
+        <v>716940</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SPAPB17E12.10c</t>
+          <t>SPAC1420.03</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SPAPB17E12.09</t>
+          <t>SPAC1420.04c</t>
         </is>
       </c>
       <c r="C7">
-        <v>1281107</v>
+        <v>1267905</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SPAPB17E12.12c</t>
+          <t>SPAPB17E12.02</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SPAPB17E12.11</t>
+          <t>SPAPB17E12.03</t>
         </is>
       </c>
       <c r="C8">
-        <v>1284152</v>
+        <v>1271889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SPAPB17E12.13</t>
+          <t>SPAPB17E12.03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SPAPB17E12.12c</t>
+          <t>SPAPB17E12.02</t>
         </is>
       </c>
       <c r="C9">
-        <v>1284531</v>
+        <v>1271445</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SPAP27G11.16</t>
+          <t>SPAPB17E12.03</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>SPAP27G11.11c</t>
+          <t>SPAPB17E12.04c</t>
         </is>
       </c>
       <c r="C10">
-        <v>1630900</v>
+        <v>1273025</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SPAC17A5.18c</t>
+          <t>SPAPB17E12.04c</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SPAC17A5.01</t>
+          <t>SPAPB17E12.03</t>
         </is>
       </c>
       <c r="C11">
-        <v>1751503</v>
+        <v>1272015</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SPAC17A5.13</t>
+          <t>SPAPB17E12.07c</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SPAC17A5.12</t>
+          <t>SPAPB17E12.06</t>
         </is>
       </c>
       <c r="C12">
-        <v>1774258</v>
+        <v>1277458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SPAC17H9.07</t>
+          <t>SPAPB17E12.09</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>SPAC17H9.06c</t>
+          <t>SPAPB17E12.10c</t>
         </is>
       </c>
       <c r="C13">
-        <v>2015136</v>
+        <v>1281414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SPAC23C11.16</t>
+          <t>SPAPB17E12.10c</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SPAC23C11.15</t>
+          <t>SPAPB17E12.09</t>
         </is>
       </c>
       <c r="C14">
-        <v>2160908</v>
+        <v>1281107</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SPAC13G7.11</t>
+          <t>SPAPB17E12.11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SPAC13G7.10</t>
+          <t>SPAPB17E12.12c</t>
         </is>
       </c>
       <c r="C15">
-        <v>2314190</v>
+        <v>1284531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SPAPB2B4.06</t>
+          <t>SPAPB17E12.12c</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SPAPB2B4.05</t>
+          <t>SPAPB17E12.11</t>
         </is>
       </c>
       <c r="C16">
-        <v>2722375</v>
+        <v>1284152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SPAC589.04</t>
+          <t>SPAPB17E12.12c</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SPAC589.03c</t>
+          <t>SPAPB17E12.13</t>
         </is>
       </c>
       <c r="C17">
-        <v>3099483</v>
+        <v>1285627</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SPAC589.11</t>
+          <t>SPAPB17E12.13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SPAC589.10c</t>
+          <t>SPAPB17E12.12c</t>
         </is>
       </c>
       <c r="C18">
-        <v>3108428</v>
+        <v>1284531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SPAC6G9.09c</t>
+          <t>SPAP27G11.03</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SPAC6G9.08</t>
+          <t>SPAP27G11.04c</t>
         </is>
       </c>
       <c r="C19">
-        <v>3259701</v>
+        <v>1614501</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SPAC959.10</t>
+          <t>SPAP27G11.16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SPAC959.11</t>
+          <t>SPAP27G11.11c</t>
         </is>
       </c>
       <c r="C20">
-        <v>3391909</v>
+        <v>1630900</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SPAC16E8.03</t>
+          <t>SPAP27G11.15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SPAC16E8.02</t>
+          <t>SPAC343.01c</t>
         </is>
       </c>
       <c r="C21">
-        <v>3504422</v>
+        <v>1639539</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SPAC16E8.18</t>
+          <t>SPAC17A5.18c</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SPAC16E8.11c</t>
+          <t>SPAC17A5.01</t>
         </is>
       </c>
       <c r="C22">
-        <v>3522325</v>
+        <v>1751503</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SPAC2F3.12c</t>
+          <t>SPAC17A5.13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SPAC2F3.11</t>
+          <t>SPAC17A5.12</t>
         </is>
       </c>
       <c r="C23">
-        <v>3946738</v>
+        <v>1774258</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SPAC2C4.09</t>
+          <t>SPAP11E10.01</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>SPAC2C4.08</t>
+          <t>SPAP11E10.02c</t>
         </is>
       </c>
       <c r="C24">
-        <v>4275171</v>
+        <v>1856893</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SPAC1782.04</t>
+          <t>SPAC17H9.07</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SPAC1782.03</t>
+          <t>SPAC17H9.06c</t>
         </is>
       </c>
       <c r="C25">
-        <v>4761807</v>
+        <v>2015136</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SPAPB8E5.02c</t>
+          <t>SPAC23C11.16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SPAC19B12.13</t>
+          <t>SPAC23C11.15</t>
         </is>
       </c>
       <c r="C26">
-        <v>4906978</v>
+        <v>2160908</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SPAC1952.02</t>
+          <t>SPAC13G7.11</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SPAC1952.01</t>
+          <t>SPAC13G7.10</t>
         </is>
       </c>
       <c r="C27">
-        <v>4968765</v>
+        <v>2314190</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SPAC890.07c</t>
+          <t>SPAC19A8.11c</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SPAC890.06</t>
+          <t>SPAC19A8.10</t>
         </is>
       </c>
       <c r="C28">
-        <v>5012077</v>
+        <v>2466495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SPAC22E12.08</t>
+          <t>SPAC644.10</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SPAC22E12.07</t>
+          <t>SPAC644.11c</t>
         </is>
       </c>
       <c r="C29">
-        <v>5031784</v>
+        <v>2692031</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SPAC19D5.11c</t>
+          <t>SPAPB2B4.06</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SPAC19D5.05c</t>
+          <t>SPAPB2B4.05</t>
         </is>
       </c>
       <c r="C30">
-        <v>5218962</v>
+        <v>2722375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SPAC14C4.16</t>
+          <t>SPAC16A10.05c</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SPAC14C4.02c</t>
+          <t>SPAC16A10.06c</t>
         </is>
       </c>
       <c r="C31">
-        <v>5229467</v>
+        <v>3089583</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>SPAC589.04</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>SPAC589.03c</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>3099483</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>SPAC589.11</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>SPAC589.10c</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>3108428</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>SPAC589.11</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>SPAC589.12</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>3110201</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>SPAC3G9.16c</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SPAC3G9.15c</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>3145867</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>SPAC6G9.09c</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>SPAC6G9.08</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>3259701</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>SPAC8E11.07c</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>SPAC8E11.06</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>3377901</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>SPAC959.10</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>SPAC959.11</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>3391909</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>SPAC959.10</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SPAC959.04c</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>3392886</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>SPAC16E8.03</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SPAC16E8.02</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>3504422</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>SPAC16E8.18</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SPAC16E8.11c</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>3522325</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>SPAC16E8.18</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>SPAC16E8.12c</t>
+        </is>
+      </c>
+      <c r="C42">
+        <v>3523136</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>SPAC15E1.09</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>SPAC15E1.08</t>
+        </is>
+      </c>
+      <c r="C43">
+        <v>3730904</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>SPAC15E1.09</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>SPAC15E1.10</t>
+        </is>
+      </c>
+      <c r="C44">
+        <v>3732443</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>SPAC2F3.12c</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>SPAC2F3.11</t>
+        </is>
+      </c>
+      <c r="C45">
+        <v>3946738</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>SPAC2F3.12c</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>SPAC2F3.13c</t>
+        </is>
+      </c>
+      <c r="C46">
+        <v>3949057</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SPAPB18E9.01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SPAPB18E9.02c</t>
+        </is>
+      </c>
+      <c r="C47">
+        <v>3976370</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>SPAC23A1.11</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>SPAC23A1.12c</t>
+        </is>
+      </c>
+      <c r="C48">
+        <v>4098303</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>SPAC694.03</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SPAC694.04c</t>
+        </is>
+      </c>
+      <c r="C49">
+        <v>4206795</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SPAC2C4.08</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>SPAC2C4.09</t>
+        </is>
+      </c>
+      <c r="C50">
+        <v>4276024</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SPAC2C4.09</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>SPAC2C4.08</t>
+        </is>
+      </c>
+      <c r="C51">
+        <v>4275171</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SPAC25G10.06</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>SPAC25G10.05c</t>
+        </is>
+      </c>
+      <c r="C52">
+        <v>4305729</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SPAC30C2.05</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>SPAC30C2.06c</t>
+        </is>
+      </c>
+      <c r="C53">
+        <v>4640742</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SPAC1782.04</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>SPAC1782.03</t>
+        </is>
+      </c>
+      <c r="C54">
+        <v>4761807</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SPAC1782.11</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>SPAC1782.12c</t>
+        </is>
+      </c>
+      <c r="C55">
+        <v>4774686</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SPAPB8E5.02c</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>SPAC19B12.13</t>
+        </is>
+      </c>
+      <c r="C56">
+        <v>4906978</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SPAC1B3.20</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>SPAC1B3.11c</t>
+        </is>
+      </c>
+      <c r="C57">
+        <v>4949270</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SPAC1952.02</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>SPAC1952.01</t>
+        </is>
+      </c>
+      <c r="C58">
+        <v>4968765</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SPAC890.07c</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>SPAC890.06</t>
+        </is>
+      </c>
+      <c r="C59">
+        <v>5012077</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SPAC22E12.08</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>SPAC22E12.07</t>
+        </is>
+      </c>
+      <c r="C60">
+        <v>5031784</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SPAC22E12.08</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>SPAC22E12.09c</t>
+        </is>
+      </c>
+      <c r="C61">
+        <v>5034440</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SPAC29A4.14c</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>SPAC29A4.13</t>
+        </is>
+      </c>
+      <c r="C62">
+        <v>5120873</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SPAC19D5.11c</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>SPAC19D5.05c</t>
+        </is>
+      </c>
+      <c r="C63">
+        <v>5218962</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SPAC19D5.11c</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>SPAC19D5.06c</t>
+        </is>
+      </c>
+      <c r="C64">
+        <v>5220220</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SPAC14C4.16</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>SPAC14C4.02c</t>
+        </is>
+      </c>
+      <c r="C65">
+        <v>5229467</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>SPAC4D7.11</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SPAC4D7.14</t>
+        </is>
+      </c>
+      <c r="C66">
+        <v>5373191</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>SPAC3G6.13c</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>SPAC3G6.11</t>
         </is>
       </c>
-      <c r="C32">
+      <c r="C67">
         <v>5400070</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>SPAC3G6.13c</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>SPAC3G6.13c</t>
+        </is>
+      </c>
+      <c r="C68">
+        <v>5402163</v>
       </c>
     </row>
   </sheetData>
